--- a/fhir/indisa/StructureDefinition-Ocupation.xlsx
+++ b/fhir/indisa/StructureDefinition-Ocupation.xlsx
@@ -140,7 +140,10 @@
     <t>Y</t>
   </si>
   <si>
-    <t>Ocupacion del paciente</t>
+    <t>Patient occupation</t>
+  </si>
+  <si>
+    <t>Patient occupation.</t>
   </si>
   <si>
     <t>*</t>
@@ -212,7 +215,7 @@
     <t>The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition SHALL be a URI for the Structure Definition defining the extension.</t>
   </si>
   <si>
-    <t>https://digitalware-klinic.github.io/fhir/indisa/StructureDefinition/Ocupation</t>
+    <t>https://digitalware-klinic.github.io/fhir/indisa/StructureDefinition-Ocupation</t>
   </si>
   <si>
     <t>N/A</t>
@@ -298,9 +301,6 @@
   </si>
   <si>
     <t>Need to be unambiguous about the source of the definition of the symbol.</t>
-  </si>
-  <si>
-    <t>https://www.digitalware.com.co/salud/fhir/extension/ocupation</t>
   </si>
   <si>
     <t>Coding.system</t>
@@ -568,42 +568,42 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="37.38671875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="12.65625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="12.64453125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.7734375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="16.2734375" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="13.2578125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="14.44140625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="35.67578125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="11.34765625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="12.19921875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="6.14453125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="4.58203125" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.94140625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="14.70703125" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="12.07421875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="13.0625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="44.2578125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="42.93359375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="15.265625" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="13.86328125" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="17.16796875" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="19.03125" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="18.85546875" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="21.5703125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="19.625" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="42.03125" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="17.2109375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="23.953125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="10.55078125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="13.87109375" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="15.7734375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="16.1328125" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.40234375" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.95703125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="19.796875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="17.6015625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="5.8828125" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="20.83984375" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="40.0859375" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="15.69921875" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="13.12109375" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="23.2734375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="9.52734375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.890625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="12.71875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="46.52734375" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="45.9453125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -747,7 +747,7 @@
         <v>41</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
@@ -804,13 +804,13 @@
         <v>38</v>
       </c>
       <c r="AG2" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AJ2" t="s" s="2">
         <v>37</v>
@@ -818,7 +818,7 @@
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
@@ -841,13 +841,13 @@
         <v>37</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
@@ -898,7 +898,7 @@
         <v>37</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AF3" t="s" s="2">
         <v>38</v>
@@ -913,12 +913,12 @@
         <v>37</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
@@ -941,13 +941,13 @@
         <v>37</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K4" t="s" s="2">
         <v>36</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -986,31 +986,31 @@
         <v>37</v>
       </c>
       <c r="AA4" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AC4" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AD4" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AF4" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AH4" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AJ4" t="s" s="2">
         <v>37</v>
@@ -1018,7 +1018,7 @@
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
@@ -1041,16 +1041,16 @@
         <v>37</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" t="s" s="2">
@@ -1058,7 +1058,7 @@
       </c>
       <c r="P5" s="2"/>
       <c r="Q5" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="R5" t="s" s="2">
         <v>37</v>
@@ -1100,7 +1100,7 @@
         <v>37</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AF5" t="s" s="2">
         <v>39</v>
@@ -1115,12 +1115,12 @@
         <v>37</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
@@ -1143,13 +1143,13 @@
         <v>37</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
@@ -1200,7 +1200,7 @@
         <v>37</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AF6" t="s" s="2">
         <v>38</v>
@@ -1212,15 +1212,15 @@
         <v>37</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
@@ -1243,13 +1243,13 @@
         <v>37</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
@@ -1300,7 +1300,7 @@
         <v>37</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AF7" t="s" s="2">
         <v>38</v>
@@ -1315,23 +1315,23 @@
         <v>37</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" t="s" s="2">
         <v>38</v>
       </c>
       <c r="F8" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G8" t="s" s="2">
         <v>37</v>
@@ -1343,16 +1343,16 @@
         <v>37</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" t="s" s="2">
@@ -1390,39 +1390,39 @@
         <v>37</v>
       </c>
       <c r="AA8" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AB8" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AC8" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AD8" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AF8" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AH8" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
@@ -1433,7 +1433,7 @@
         <v>38</v>
       </c>
       <c r="F9" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G9" t="s" s="2">
         <v>37</v>
@@ -1445,19 +1445,19 @@
         <v>40</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="N9" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="O9" t="s" s="2">
         <v>37</v>
@@ -1506,27 +1506,27 @@
         <v>37</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AH9" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
@@ -1549,13 +1549,13 @@
         <v>37</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
@@ -1606,7 +1606,7 @@
         <v>37</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>38</v>
@@ -1621,23 +1621,23 @@
         <v>37</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" t="s" s="2">
         <v>38</v>
       </c>
       <c r="F11" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G11" t="s" s="2">
         <v>37</v>
@@ -1649,16 +1649,16 @@
         <v>37</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" t="s" s="2">
@@ -1696,39 +1696,39 @@
         <v>37</v>
       </c>
       <c r="AA11" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AB11" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AC11" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AD11" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AH11" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
@@ -1751,26 +1751,26 @@
         <v>40</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="O12" t="s" s="2">
         <v>37</v>
       </c>
       <c r="P12" s="2"/>
       <c r="Q12" t="s" s="2">
-        <v>91</v>
+        <v>64</v>
       </c>
       <c r="R12" t="s" s="2">
         <v>37</v>
@@ -1824,7 +1824,7 @@
         <v>37</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AJ12" t="s" s="2">
         <v>93</v>
@@ -1855,7 +1855,7 @@
         <v>40</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K13" t="s" s="2">
         <v>95</v>
@@ -1926,7 +1926,7 @@
         <v>37</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AJ13" t="s" s="2">
         <v>99</v>
@@ -2028,7 +2028,7 @@
         <v>37</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AJ14" t="s" s="2">
         <v>106</v>
@@ -2059,7 +2059,7 @@
         <v>40</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K15" t="s" s="2">
         <v>108</v>
@@ -2130,7 +2130,7 @@
         <v>37</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AJ15" t="s" s="2">
         <v>112</v>
@@ -2234,7 +2234,7 @@
         <v>37</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AJ16" t="s" s="2">
         <v>120</v>
@@ -2265,7 +2265,7 @@
         <v>40</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K17" t="s" s="2">
         <v>122</v>
@@ -2338,7 +2338,7 @@
         <v>37</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AJ17" t="s" s="2">
         <v>127</v>

--- a/fhir/indisa/StructureDefinition-Ocupation.xlsx
+++ b/fhir/indisa/StructureDefinition-Ocupation.xlsx
@@ -568,42 +568,42 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="35.67578125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="11.34765625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="12.19921875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.14453125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.58203125" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.94140625" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="14.70703125" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="12.07421875" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.0625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="37.38671875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="12.65625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="12.64453125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="6.7734375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="5.4296875" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="16.2734375" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.2578125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="14.44140625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="42.93359375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="44.2578125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="13.86328125" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="15.265625" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="15.7734375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="16.1328125" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.40234375" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="16.95703125" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="19.796875" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="17.6015625" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="5.8828125" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="20.83984375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="40.0859375" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="15.69921875" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="13.12109375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="23.2734375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="9.52734375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.890625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="12.71875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="17.16796875" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="17.65625" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="19.03125" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="18.85546875" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="21.5703125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="19.625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="42.03125" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="17.2109375" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="23.953125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="10.55078125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="13.87109375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="45.9453125" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="46.52734375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
